--- a/data/paul-phoenix-tekken-8-frame-data.xlsx
+++ b/data/paul-phoenix-tekken-8-frame-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H147"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,15 +492,11 @@
       <c r="D2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -526,15 +522,11 @@
       <c r="D3" t="n">
         <v>10</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -560,15 +552,11 @@
       <c r="D4" t="n">
         <v>10</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
+      <c r="E4" t="n">
+        <v>25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-14</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -594,15 +582,11 @@
       <c r="D5" t="n">
         <v>10</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+1	</t>
-        </is>
+      <c r="E5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -628,15 +612,11 @@
       <c r="D6" t="n">
         <v>10</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+6</t>
-        </is>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -662,15 +642,11 @@
       <c r="D7" t="n">
         <v>10</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>70</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -696,15 +672,11 @@
       <c r="D8" t="n">
         <v>10</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
+      <c r="E8" t="n">
+        <v>12</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -730,15 +702,11 @@
       <c r="D9" t="n">
         <v>15</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -764,15 +732,11 @@
       <c r="D10" t="n">
         <v>15</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -798,15 +762,11 @@
       <c r="D11" t="n">
         <v>15</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
+      <c r="E11" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>14</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -832,15 +792,11 @@
       <c r="D12" t="n">
         <v>12</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E12" t="n">
+        <v>7</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -867,10 +823,8 @@
         <v>28</v>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="F13" t="n">
+        <v>70</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -893,10 +847,8 @@
         <v>46</v>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="F14" t="n">
+        <v>70</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -919,10 +871,8 @@
         <v>71</v>
       </c>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="F15" t="n">
+        <v>70</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
@@ -949,10 +899,8 @@
         <v>14</v>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
+      <c r="F16" t="n">
+        <v>70</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1001,10 +949,8 @@
         <v>16</v>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="F18" t="n">
+        <v>70</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1048,15 +994,11 @@
       <c r="D20" t="n">
         <v>20</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1082,15 +1024,11 @@
       <c r="D21" t="n">
         <v>21</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E21" t="n">
+        <v>14</v>
+      </c>
+      <c r="F21" t="n">
+        <v>70</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1116,15 +1054,11 @@
       <c r="D22" t="n">
         <v>14</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>-2</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1150,15 +1084,11 @@
       <c r="D23" t="n">
         <v>14</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1184,15 +1114,11 @@
       <c r="D24" t="n">
         <v>14</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E24" t="n">
+        <v>9</v>
+      </c>
+      <c r="F24" t="n">
+        <v>70</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1218,15 +1144,11 @@
       <c r="D25" t="n">
         <v>14</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>+3</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+9	</t>
-        </is>
+      <c r="E25" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1256,15 +1178,11 @@
       <c r="D26" t="n">
         <v>15</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-8	</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E26" t="n">
+        <v>8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>70</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1312,15 +1230,11 @@
       <c r="D28" t="n">
         <v>14</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E28" t="n">
+        <v>9</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1346,15 +1260,11 @@
       <c r="D29" t="n">
         <v>14</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E29" t="n">
+        <v>17</v>
+      </c>
+      <c r="F29" t="n">
+        <v>70</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1380,15 +1290,11 @@
       <c r="D30" t="n">
         <v>14</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>+14</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E30" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F30" t="n">
+        <v>70</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1415,10 +1321,8 @@
         <v>14</v>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="F31" t="n">
+        <v>70</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1444,15 +1348,11 @@
       <c r="D32" t="n">
         <v>16</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-17	</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-3	</t>
-        </is>
+      <c r="E32" t="n">
+        <v>17</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1478,15 +1378,11 @@
       <c r="D33" t="n">
         <v>14</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>-31</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
+      <c r="E33" t="n">
+        <v>31</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-17</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1512,15 +1408,11 @@
       <c r="D34" t="n">
         <v>12</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-13	</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-2	</t>
-        </is>
+      <c r="E34" t="n">
+        <v>13</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-2</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1546,15 +1438,11 @@
       <c r="D35" t="n">
         <v>14</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E35" t="n">
+        <v>14</v>
+      </c>
+      <c r="F35" t="n">
+        <v>70</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1580,15 +1468,11 @@
       <c r="D36" t="n">
         <v>20</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-14	</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E36" t="n">
+        <v>14</v>
+      </c>
+      <c r="F36" t="n">
+        <v>70</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1614,15 +1498,11 @@
       <c r="D37" t="n">
         <v>11</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>+7</t>
-        </is>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" t="n">
+        <v>7</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1648,15 +1528,11 @@
       <c r="D38" t="n">
         <v>12</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E38" t="n">
+        <v>9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1682,15 +1558,11 @@
       <c r="D39" t="n">
         <v>16</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+      <c r="E39" t="n">
+        <v>17</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-3</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1716,15 +1588,11 @@
       <c r="D40" t="n">
         <v>12</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>-14</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>+16</t>
-        </is>
+      <c r="E40" t="n">
+        <v>14</v>
+      </c>
+      <c r="F40" t="n">
+        <v>16</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1750,15 +1618,11 @@
       <c r="D41" t="n">
         <v>15</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>-31</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E41" t="n">
+        <v>31</v>
+      </c>
+      <c r="F41" t="n">
+        <v>70</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1784,15 +1648,11 @@
       <c r="D42" t="n">
         <v>18</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>+4</t>
-        </is>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1818,15 +1678,11 @@
       <c r="D43" t="n">
         <v>15</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>-18</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
+      <c r="E43" t="n">
+        <v>18</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-9</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1852,15 +1708,11 @@
       <c r="D44" t="n">
         <v>18</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E44" t="n">
+        <v>12</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1886,16 +1738,10 @@
       <c r="D45" t="n">
         <v>15</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-17	</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KDN	</t>
-        </is>
-      </c>
+      <c r="E45" t="n">
+        <v>17</v>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t xml:space="preserve">KDN	</t>
@@ -1920,15 +1766,11 @@
       <c r="D46" t="n">
         <v>18</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>+8</t>
-        </is>
+      <c r="E46" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1954,15 +1796,11 @@
       <c r="D47" t="n">
         <v>12</v>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-16	</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E47" t="n">
+        <v>16</v>
+      </c>
+      <c r="F47" t="n">
+        <v>70</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1988,15 +1826,11 @@
       <c r="D48" t="n">
         <v>14</v>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-6	</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E48" t="n">
+        <v>6</v>
+      </c>
+      <c r="F48" t="n">
+        <v>70</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2022,15 +1856,11 @@
       <c r="D49" t="n">
         <v>10</v>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-5	</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+6	</t>
-        </is>
+      <c r="E49" t="n">
+        <v>5</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2056,15 +1886,11 @@
       <c r="D50" t="n">
         <v>20</v>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-13	</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+3	</t>
-        </is>
+      <c r="E50" t="n">
+        <v>13</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2090,15 +1916,11 @@
       <c r="D51" t="n">
         <v>19</v>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-11	</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E51" t="n">
+        <v>11</v>
+      </c>
+      <c r="F51" t="n">
+        <v>70</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2124,15 +1946,11 @@
       <c r="D52" t="n">
         <v>24</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>70</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2158,15 +1976,11 @@
       <c r="D53" t="n">
         <v>18</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-1	</t>
-        </is>
+      <c r="E53" t="n">
+        <v>12</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-1</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2192,15 +2006,11 @@
       <c r="D54" t="n">
         <v>21</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E54" t="n">
+        <v>9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>70</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2226,15 +2036,11 @@
       <c r="D55" t="n">
         <v>22</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
+      <c r="E55" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>17</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2260,15 +2066,11 @@
       <c r="D56" t="n">
         <v>15</v>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-16	</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E56" t="n">
+        <v>16</v>
+      </c>
+      <c r="F56" t="n">
+        <v>70</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2294,15 +2096,11 @@
       <c r="D57" t="n">
         <v>15</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-13	</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E57" t="n">
+        <v>13</v>
+      </c>
+      <c r="F57" t="n">
+        <v>70</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2328,15 +2126,11 @@
       <c r="D58" t="n">
         <v>15</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-13	</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E58" t="n">
+        <v>13</v>
+      </c>
+      <c r="F58" t="n">
+        <v>70</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2362,15 +2156,11 @@
       <c r="D59" t="n">
         <v>15</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-17	</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
+      <c r="E59" t="n">
+        <v>17</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-7</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2396,15 +2186,11 @@
       <c r="D60" t="n">
         <v>15</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E60" t="n">
+        <v>12</v>
+      </c>
+      <c r="F60" t="n">
+        <v>70</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2430,15 +2216,11 @@
       <c r="D61" t="n">
         <v>15</v>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E61" t="n">
+        <v>4</v>
+      </c>
+      <c r="F61" t="n">
+        <v>70</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2464,15 +2246,11 @@
       <c r="D62" t="n">
         <v>15</v>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-17	</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E62" t="n">
+        <v>17</v>
+      </c>
+      <c r="F62" t="n">
+        <v>70</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2498,15 +2276,11 @@
       <c r="D63" t="n">
         <v>15</v>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-16	</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E63" t="n">
+        <v>16</v>
+      </c>
+      <c r="F63" t="n">
+        <v>70</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2532,15 +2306,11 @@
       <c r="D64" t="n">
         <v>15</v>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-19	</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E64" t="n">
+        <v>19</v>
+      </c>
+      <c r="F64" t="n">
+        <v>70</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2566,15 +2336,11 @@
       <c r="D65" t="n">
         <v>27</v>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>70</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2601,10 +2367,8 @@
         <v>18</v>
       </c>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
+      <c r="F66" t="n">
+        <v>70</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2630,15 +2394,11 @@
       <c r="D67" t="n">
         <v>28</v>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-6	</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E67" t="n">
+        <v>6</v>
+      </c>
+      <c r="F67" t="n">
+        <v>70</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2664,15 +2424,11 @@
       <c r="D68" t="n">
         <v>10</v>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-5	</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+6	</t>
-        </is>
+      <c r="E68" t="n">
+        <v>5</v>
+      </c>
+      <c r="F68" t="n">
+        <v>6</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2698,15 +2454,11 @@
       <c r="D69" t="n">
         <v>11</v>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-4	</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+7	</t>
-        </is>
+      <c r="E69" t="n">
+        <v>4</v>
+      </c>
+      <c r="F69" t="n">
+        <v>7</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2732,15 +2484,11 @@
       <c r="D70" t="n">
         <v>16</v>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-17	</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-3	</t>
-        </is>
+      <c r="E70" t="n">
+        <v>17</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-3</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2766,15 +2514,11 @@
       <c r="D71" t="n">
         <v>12</v>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-15	</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-4	</t>
-        </is>
+      <c r="E71" t="n">
+        <v>15</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-4</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2800,10 +2544,8 @@
       <c r="D72" t="n">
         <v>15</v>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="E72" t="n">
+        <v>10</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2826,15 +2568,11 @@
       <c r="D73" t="n">
         <v>15</v>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
+      <c r="E73" t="n">
+        <v>11</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2860,15 +2598,11 @@
       <c r="D74" t="n">
         <v>15</v>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-14	</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E74" t="n">
+        <v>14</v>
+      </c>
+      <c r="F74" t="n">
+        <v>70</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2894,15 +2628,11 @@
       <c r="D75" t="n">
         <v>13</v>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-8	</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+3	</t>
-        </is>
+      <c r="E75" t="n">
+        <v>8</v>
+      </c>
+      <c r="F75" t="n">
+        <v>3</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2928,15 +2658,11 @@
       <c r="D76" t="n">
         <v>13</v>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E76" t="n">
+        <v>9</v>
+      </c>
+      <c r="F76" t="n">
+        <v>70</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2962,15 +2688,11 @@
       <c r="D77" t="n">
         <v>11</v>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-6	</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+5	</t>
-        </is>
+      <c r="E77" t="n">
+        <v>6</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2996,15 +2718,11 @@
       <c r="D78" t="n">
         <v>14</v>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-17	</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
+      <c r="E78" t="n">
+        <v>17</v>
+      </c>
+      <c r="F78" t="n">
+        <v>-7</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3034,15 +2752,11 @@
       <c r="D79" t="n">
         <v>20</v>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+8	</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E79" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F79" t="n">
+        <v>70</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3068,15 +2782,11 @@
       <c r="D80" t="n">
         <v>19</v>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+4	</t>
-        </is>
+      <c r="E80" t="n">
+        <v>12</v>
+      </c>
+      <c r="F80" t="n">
+        <v>4</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3102,15 +2812,11 @@
       <c r="D81" t="n">
         <v>16</v>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-4	</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E81" t="n">
+        <v>4</v>
+      </c>
+      <c r="F81" t="n">
+        <v>70</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3136,15 +2842,11 @@
       <c r="D82" t="n">
         <v>13</v>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E82" t="n">
+        <v>17</v>
+      </c>
+      <c r="F82" t="n">
+        <v>70</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3170,15 +2872,11 @@
       <c r="D83" t="n">
         <v>13</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E83" t="n">
+        <v>13</v>
+      </c>
+      <c r="F83" t="n">
+        <v>70</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3204,15 +2902,11 @@
       <c r="D84" t="n">
         <v>18</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-14	</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E84" t="n">
+        <v>14</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3238,15 +2932,11 @@
       <c r="D85" t="n">
         <v>32</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E85" t="n">
+        <v>12</v>
+      </c>
+      <c r="F85" t="n">
+        <v>70</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3272,15 +2962,11 @@
       <c r="D86" t="n">
         <v>19</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="E86" t="n">
+        <v>9</v>
+      </c>
+      <c r="F86" t="n">
+        <v>70</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3306,10 +2992,8 @@
       <c r="D87" t="n">
         <v>15</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
+      <c r="E87" t="n">
+        <v>10</v>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
@@ -3336,15 +3020,11 @@
       <c r="D88" t="n">
         <v>15</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E88" t="n">
+        <v>5</v>
+      </c>
+      <c r="F88" t="n">
+        <v>70</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3370,15 +3050,11 @@
       <c r="D89" t="n">
         <v>15</v>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E89" t="n">
+        <v>13</v>
+      </c>
+      <c r="F89" t="n">
+        <v>70</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3404,15 +3080,11 @@
       <c r="D90" t="n">
         <v>17</v>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="E90" t="n">
+        <v>12</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3438,15 +3110,11 @@
       <c r="D91" t="n">
         <v>16</v>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>-49</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E91" t="n">
+        <v>49</v>
+      </c>
+      <c r="F91" t="n">
+        <v>70</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3472,15 +3140,11 @@
       <c r="D92" t="n">
         <v>21</v>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>70</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3506,15 +3170,11 @@
       <c r="D93" t="n">
         <v>15</v>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E93" t="n">
+        <v>8</v>
+      </c>
+      <c r="F93" t="n">
+        <v>70</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3544,15 +3204,11 @@
       <c r="D94" t="n">
         <v>18</v>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-21	</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-10	</t>
-        </is>
+      <c r="E94" t="n">
+        <v>21</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-10</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3578,15 +3234,11 @@
       <c r="D95" t="n">
         <v>18</v>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-10	</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+6	</t>
-        </is>
+      <c r="E95" t="n">
+        <v>10</v>
+      </c>
+      <c r="F95" t="n">
+        <v>6</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3612,15 +3264,11 @@
       <c r="D96" t="n">
         <v>18</v>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-10	</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E96" t="n">
+        <v>10</v>
+      </c>
+      <c r="F96" t="n">
+        <v>70</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3646,15 +3294,11 @@
       <c r="D97" t="n">
         <v>18</v>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E97" t="n">
+        <v>13</v>
+      </c>
+      <c r="F97" t="n">
+        <v>70</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3680,15 +3324,11 @@
       <c r="D98" t="n">
         <v>15</v>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+1	</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
+      <c r="E98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>70</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3715,1629 +3355,11 @@
         <v>16</v>
       </c>
       <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
+      <c r="F99" t="n">
+        <v>70</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>B+1+2</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">H </t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>28</v>
-      </c>
-      <c r="D100" t="n">
-        <v>24</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>UF+1</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>12</v>
-      </c>
-      <c r="D101" t="n">
-        <v>18</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-1	</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-1	</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>UB+2</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>22</v>
-      </c>
-      <c r="D102" t="n">
-        <v>21</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>UF+2 (Heat engager)</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>H,SP</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>22</v>
-      </c>
-      <c r="D103" t="n">
-        <v>22</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>+5</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>+17</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>UF+3</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>14</v>
-      </c>
-      <c r="D104" t="n">
-        <v>15</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-16	</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>UF+3,4</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>34</v>
-      </c>
-      <c r="D105" t="n">
-        <v>15</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-13	</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>UF+4</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>13</v>
-      </c>
-      <c r="D106" t="n">
-        <v>15</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-13	</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>F,F+2</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>14</v>
-      </c>
-      <c r="D107" t="n">
-        <v>15</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-17	</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>F,F+2</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>34</v>
-      </c>
-      <c r="D108" t="n">
-        <v>15</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>F,F+2 (Perfect)</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>34</v>
-      </c>
-      <c r="D109" t="n">
-        <v>15</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>-4</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>F,F+3</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>17</v>
-      </c>
-      <c r="D110" t="n">
-        <v>15</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-17	</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>F,F+3,4</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>32</v>
-      </c>
-      <c r="D111" t="n">
-        <v>15</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-16	</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>F,F+2,2</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M,L </t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>35</v>
-      </c>
-      <c r="D112" t="n">
-        <v>15</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-19	</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>F,F+4</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>20</v>
-      </c>
-      <c r="D113" t="n">
-        <v>27</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>F,F,F+2</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>M,Th</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>55</v>
-      </c>
-      <c r="D114" t="n">
-        <v>18</v>
-      </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Th</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>B,F+1</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">H </t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>22</v>
-      </c>
-      <c r="D115" t="n">
-        <v>28</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-6	</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>FC 1</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SM </t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>5</v>
-      </c>
-      <c r="D116" t="n">
-        <v>10</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-5	</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+6	</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+6	</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>FC 2</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SM </t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>8</v>
-      </c>
-      <c r="D117" t="n">
-        <v>11</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-4	</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+7	</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+7	</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>FC 3</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L </t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>12</v>
-      </c>
-      <c r="D118" t="n">
-        <v>16</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-17	</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-3	</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-3	</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>FC 4</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L </t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>10</v>
-      </c>
-      <c r="D119" t="n">
-        <v>12</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-15	</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-4	</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-4	</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>WS 1</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>17</v>
-      </c>
-      <c r="D120" t="n">
-        <v>15</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-      <c r="H120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>WS 1,2</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>34</v>
-      </c>
-      <c r="D121" t="n">
-        <v>15</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>+2</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>WS 2</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>20</v>
-      </c>
-      <c r="D122" t="n">
-        <v>15</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-14	</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>WS 3</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>16</v>
-      </c>
-      <c r="D123" t="n">
-        <v>13</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-8	</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+3	</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+3	</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>WS 3,2</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>37</v>
-      </c>
-      <c r="D124" t="n">
-        <v>13</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>WS 4</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>18</v>
-      </c>
-      <c r="D125" t="n">
-        <v>11</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-6	</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+5	</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+5	</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>FC DF+2</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>14</v>
-      </c>
-      <c r="D126" t="n">
-        <v>14</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-17	</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-7	</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Same as FF,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>SS 1</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">H </t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>21</v>
-      </c>
-      <c r="D127" t="n">
-        <v>20</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+8	</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>SS 3</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L </t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>17</v>
-      </c>
-      <c r="D128" t="n">
-        <v>19</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-12	</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+4	</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+12	</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>QCF,1</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">H </t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>21</v>
-      </c>
-      <c r="D129" t="n">
-        <v>16</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-4	</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>QCF,2 (Heat engager)</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>M,SP</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>75</v>
-      </c>
-      <c r="D130" t="n">
-        <v>13</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>QCF,2 (Heat)</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>85</v>
-      </c>
-      <c r="D131" t="n">
-        <v>13</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>QCF,3</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L </t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>17</v>
-      </c>
-      <c r="D132" t="n">
-        <v>18</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-14	</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>QCF,1+2</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L </t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>20</v>
-      </c>
-      <c r="D133" t="n">
-        <v>32</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>QCF,3+4</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>30</v>
-      </c>
-      <c r="D134" t="n">
-        <v>19</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-9	</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>QCF, DF+2</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M </t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>17</v>
-      </c>
-      <c r="D135" t="n">
-        <v>15</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>Deep dive = QCF + DF</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>QCF, DF+2,1</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>M,H</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>45</v>
-      </c>
-      <c r="D136" t="n">
-        <v>15</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>QCF, DF+2,3</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>39</v>
-      </c>
-      <c r="D137" t="n">
-        <v>15</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>QCF, DF+4</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L </t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>12</v>
-      </c>
-      <c r="D138" t="n">
-        <v>17</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>-12</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>QCF, DF+4</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>M,M</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>80</v>
-      </c>
-      <c r="D139" t="n">
-        <v>16</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>-49</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>QCB,1</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> M </t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>24</v>
-      </c>
-      <c r="D140" t="n">
-        <v>21</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>QCB,2 (Heat Engager)</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>M,SP</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>52</v>
-      </c>
-      <c r="D141" t="n">
-        <v>15</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>-8</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Attack that can activate heat.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>QCB,3</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L </t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>14</v>
-      </c>
-      <c r="D142" t="n">
-        <v>18</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-21	</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-10	</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>QCB,3,2</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>L,M</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>34</v>
-      </c>
-      <c r="D143" t="n">
-        <v>18</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-10	</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+6	</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+6	</t>
-        </is>
-      </c>
-      <c r="H143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>QCB,3,2,1</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>L,M,H</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>59</v>
-      </c>
-      <c r="D144" t="n">
-        <v>18</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-10	</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>QCB,3,2,3</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>L,M,M</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>56</v>
-      </c>
-      <c r="D145" t="n">
-        <v>18</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>LNC</t>
-        </is>
-      </c>
-      <c r="H145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>QCB,4</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">H </t>
-        </is>
-      </c>
-      <c r="C146" t="n">
-        <v>20</v>
-      </c>
-      <c r="D146" t="n">
-        <v>15</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">+1	</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>KDN</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>QCB,1+2</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">H </t>
-        </is>
-      </c>
-      <c r="C147" t="n">
-        <v>22</v>
-      </c>
-      <c r="D147" t="n">
-        <v>16</v>
-      </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Launch</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/paul-phoenix-tekken-8-frame-data.xlsx
+++ b/data/paul-phoenix-tekken-8-frame-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F3" t="n">
         <v>6</v>
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="F4" t="n">
         <v>-14</v>
@@ -583,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F7" t="n">
         <v>70</v>
@@ -673,7 +673,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F8" t="n">
         <v>-1</v>
@@ -703,7 +703,7 @@
         <v>15</v>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F9" t="n">
         <v>4</v>
@@ -733,7 +733,7 @@
         <v>15</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="F10" t="n">
         <v>7</v>
@@ -763,7 +763,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>14</v>
@@ -793,7 +793,7 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="F12" t="n">
         <v>7</v>
@@ -995,7 +995,7 @@
         <v>20</v>
       </c>
       <c r="E20" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>8</v>
@@ -1025,7 +1025,7 @@
         <v>21</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F21" t="n">
         <v>70</v>
@@ -1055,7 +1055,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="F22" t="n">
         <v>4</v>
@@ -1085,7 +1085,7 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F23" t="n">
         <v>5</v>
@@ -1115,7 +1115,7 @@
         <v>14</v>
       </c>
       <c r="E24" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F24" t="n">
         <v>70</v>
@@ -1145,7 +1145,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F25" t="n">
         <v>9</v>
@@ -1179,7 +1179,7 @@
         <v>15</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F26" t="n">
         <v>70</v>
@@ -1231,7 +1231,7 @@
         <v>14</v>
       </c>
       <c r="E28" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F28" t="n">
         <v>2</v>
@@ -1261,7 +1261,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F29" t="n">
         <v>70</v>
@@ -1291,7 +1291,7 @@
         <v>14</v>
       </c>
       <c r="E30" t="n">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="F30" t="n">
         <v>70</v>
@@ -1349,7 +1349,7 @@
         <v>16</v>
       </c>
       <c r="E32" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F32" t="n">
         <v>-3</v>
@@ -1379,7 +1379,7 @@
         <v>14</v>
       </c>
       <c r="E33" t="n">
-        <v>31</v>
+        <v>-31</v>
       </c>
       <c r="F33" t="n">
         <v>-17</v>
@@ -1409,7 +1409,7 @@
         <v>12</v>
       </c>
       <c r="E34" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F34" t="n">
         <v>-2</v>
@@ -1439,7 +1439,7 @@
         <v>14</v>
       </c>
       <c r="E35" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F35" t="n">
         <v>70</v>
@@ -1469,7 +1469,7 @@
         <v>20</v>
       </c>
       <c r="E36" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F36" t="n">
         <v>70</v>
@@ -1499,7 +1499,7 @@
         <v>11</v>
       </c>
       <c r="E37" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F37" t="n">
         <v>7</v>
@@ -1529,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F38" t="n">
         <v>2</v>
@@ -1559,7 +1559,7 @@
         <v>16</v>
       </c>
       <c r="E39" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F39" t="n">
         <v>-3</v>
@@ -1589,7 +1589,7 @@
         <v>12</v>
       </c>
       <c r="E40" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F40" t="n">
         <v>16</v>
@@ -1619,7 +1619,7 @@
         <v>15</v>
       </c>
       <c r="E41" t="n">
-        <v>31</v>
+        <v>-31</v>
       </c>
       <c r="F41" t="n">
         <v>70</v>
@@ -1649,7 +1649,7 @@
         <v>18</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F42" t="n">
         <v>4</v>
@@ -1679,7 +1679,7 @@
         <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="F43" t="n">
         <v>-9</v>
@@ -1709,7 +1709,7 @@
         <v>18</v>
       </c>
       <c r="E44" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>15</v>
       </c>
       <c r="E45" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
@@ -1767,7 +1767,7 @@
         <v>18</v>
       </c>
       <c r="E46" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="F46" t="n">
         <v>8</v>
@@ -1797,7 +1797,7 @@
         <v>12</v>
       </c>
       <c r="E47" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F47" t="n">
         <v>70</v>
@@ -1827,7 +1827,7 @@
         <v>14</v>
       </c>
       <c r="E48" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F48" t="n">
         <v>70</v>
@@ -1857,7 +1857,7 @@
         <v>10</v>
       </c>
       <c r="E49" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F49" t="n">
         <v>6</v>
@@ -1887,7 +1887,7 @@
         <v>20</v>
       </c>
       <c r="E50" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F50" t="n">
         <v>3</v>
@@ -1917,7 +1917,7 @@
         <v>19</v>
       </c>
       <c r="E51" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F51" t="n">
         <v>70</v>
@@ -1977,7 +1977,7 @@
         <v>18</v>
       </c>
       <c r="E53" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F53" t="n">
         <v>-1</v>
@@ -2007,7 +2007,7 @@
         <v>21</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F54" t="n">
         <v>70</v>
@@ -2037,7 +2037,7 @@
         <v>22</v>
       </c>
       <c r="E55" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F55" t="n">
         <v>17</v>
@@ -2067,7 +2067,7 @@
         <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F56" t="n">
         <v>70</v>
@@ -2097,7 +2097,7 @@
         <v>15</v>
       </c>
       <c r="E57" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F57" t="n">
         <v>70</v>
@@ -2127,7 +2127,7 @@
         <v>15</v>
       </c>
       <c r="E58" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F58" t="n">
         <v>70</v>
@@ -2157,7 +2157,7 @@
         <v>15</v>
       </c>
       <c r="E59" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F59" t="n">
         <v>-7</v>
@@ -2187,7 +2187,7 @@
         <v>15</v>
       </c>
       <c r="E60" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F60" t="n">
         <v>70</v>
@@ -2217,7 +2217,7 @@
         <v>15</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F61" t="n">
         <v>70</v>
@@ -2247,7 +2247,7 @@
         <v>15</v>
       </c>
       <c r="E62" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F62" t="n">
         <v>70</v>
@@ -2277,7 +2277,7 @@
         <v>15</v>
       </c>
       <c r="E63" t="n">
-        <v>16</v>
+        <v>-16</v>
       </c>
       <c r="F63" t="n">
         <v>70</v>
@@ -2307,7 +2307,7 @@
         <v>15</v>
       </c>
       <c r="E64" t="n">
-        <v>19</v>
+        <v>-19</v>
       </c>
       <c r="F64" t="n">
         <v>70</v>
@@ -2337,7 +2337,7 @@
         <v>27</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F65" t="n">
         <v>70</v>
@@ -2395,7 +2395,7 @@
         <v>28</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F67" t="n">
         <v>70</v>
@@ -2425,7 +2425,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F68" t="n">
         <v>6</v>
@@ -2455,7 +2455,7 @@
         <v>11</v>
       </c>
       <c r="E69" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F69" t="n">
         <v>7</v>
@@ -2485,7 +2485,7 @@
         <v>16</v>
       </c>
       <c r="E70" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F70" t="n">
         <v>-3</v>
@@ -2515,7 +2515,7 @@
         <v>12</v>
       </c>
       <c r="E71" t="n">
-        <v>15</v>
+        <v>-15</v>
       </c>
       <c r="F71" t="n">
         <v>-4</v>
@@ -2545,7 +2545,7 @@
         <v>15</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
@@ -2569,7 +2569,7 @@
         <v>15</v>
       </c>
       <c r="E73" t="n">
-        <v>11</v>
+        <v>-11</v>
       </c>
       <c r="F73" t="n">
         <v>2</v>
@@ -2599,7 +2599,7 @@
         <v>15</v>
       </c>
       <c r="E74" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F74" t="n">
         <v>70</v>
@@ -2629,7 +2629,7 @@
         <v>13</v>
       </c>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F75" t="n">
         <v>3</v>
@@ -2659,7 +2659,7 @@
         <v>13</v>
       </c>
       <c r="E76" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F76" t="n">
         <v>70</v>
@@ -2689,7 +2689,7 @@
         <v>11</v>
       </c>
       <c r="E77" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="F77" t="n">
         <v>5</v>
@@ -2719,7 +2719,7 @@
         <v>14</v>
       </c>
       <c r="E78" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F78" t="n">
         <v>-7</v>
@@ -2753,7 +2753,7 @@
         <v>20</v>
       </c>
       <c r="E79" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="F79" t="n">
         <v>70</v>
@@ -2783,7 +2783,7 @@
         <v>19</v>
       </c>
       <c r="E80" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F80" t="n">
         <v>4</v>
@@ -2813,7 +2813,7 @@
         <v>16</v>
       </c>
       <c r="E81" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="F81" t="n">
         <v>70</v>
@@ -2843,7 +2843,7 @@
         <v>13</v>
       </c>
       <c r="E82" t="n">
-        <v>17</v>
+        <v>-17</v>
       </c>
       <c r="F82" t="n">
         <v>70</v>
@@ -2873,7 +2873,7 @@
         <v>13</v>
       </c>
       <c r="E83" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F83" t="n">
         <v>70</v>
@@ -2903,7 +2903,7 @@
         <v>18</v>
       </c>
       <c r="E84" t="n">
-        <v>14</v>
+        <v>-14</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>32</v>
       </c>
       <c r="E85" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F85" t="n">
         <v>70</v>
@@ -2963,7 +2963,7 @@
         <v>19</v>
       </c>
       <c r="E86" t="n">
-        <v>9</v>
+        <v>-9</v>
       </c>
       <c r="F86" t="n">
         <v>70</v>
@@ -2993,7 +2993,7 @@
         <v>15</v>
       </c>
       <c r="E87" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
@@ -3021,7 +3021,7 @@
         <v>15</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F88" t="n">
         <v>70</v>
@@ -3051,7 +3051,7 @@
         <v>15</v>
       </c>
       <c r="E89" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F89" t="n">
         <v>70</v>
@@ -3081,7 +3081,7 @@
         <v>17</v>
       </c>
       <c r="E90" t="n">
-        <v>12</v>
+        <v>-12</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>16</v>
       </c>
       <c r="E91" t="n">
-        <v>49</v>
+        <v>-49</v>
       </c>
       <c r="F91" t="n">
         <v>70</v>
@@ -3171,7 +3171,7 @@
         <v>15</v>
       </c>
       <c r="E93" t="n">
-        <v>8</v>
+        <v>-8</v>
       </c>
       <c r="F93" t="n">
         <v>70</v>
@@ -3205,7 +3205,7 @@
         <v>18</v>
       </c>
       <c r="E94" t="n">
-        <v>21</v>
+        <v>-21</v>
       </c>
       <c r="F94" t="n">
         <v>-10</v>
@@ -3235,7 +3235,7 @@
         <v>18</v>
       </c>
       <c r="E95" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F95" t="n">
         <v>6</v>
@@ -3265,7 +3265,7 @@
         <v>18</v>
       </c>
       <c r="E96" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F96" t="n">
         <v>70</v>
@@ -3295,7 +3295,7 @@
         <v>18</v>
       </c>
       <c r="E97" t="n">
-        <v>13</v>
+        <v>-13</v>
       </c>
       <c r="F97" t="n">
         <v>70</v>
@@ -3325,7 +3325,7 @@
         <v>15</v>
       </c>
       <c r="E98" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
         <v>70</v>
@@ -3360,6 +3360,1438 @@
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B+1+2</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H </t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>28</v>
+      </c>
+      <c r="D100" t="n">
+        <v>24</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>70</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>UF+1</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>12</v>
+      </c>
+      <c r="D101" t="n">
+        <v>18</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-1	</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>UB+2</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>22</v>
+      </c>
+      <c r="D102" t="n">
+        <v>21</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F102" t="n">
+        <v>70</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>UF+2 (Heat engager)</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>H,SP</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>22</v>
+      </c>
+      <c r="D103" t="n">
+        <v>22</v>
+      </c>
+      <c r="E103" t="n">
+        <v>5</v>
+      </c>
+      <c r="F103" t="n">
+        <v>17</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>+17</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>UF+3</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>14</v>
+      </c>
+      <c r="D104" t="n">
+        <v>15</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F104" t="n">
+        <v>70</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>UF+3,4</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>34</v>
+      </c>
+      <c r="D105" t="n">
+        <v>15</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F105" t="n">
+        <v>70</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>UF+4</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>13</v>
+      </c>
+      <c r="D106" t="n">
+        <v>15</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F106" t="n">
+        <v>70</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>F,F+2</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>14</v>
+      </c>
+      <c r="D107" t="n">
+        <v>15</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-7	</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>F,F+2</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>34</v>
+      </c>
+      <c r="D108" t="n">
+        <v>15</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F108" t="n">
+        <v>70</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>F,F+2 (Perfect)</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>34</v>
+      </c>
+      <c r="D109" t="n">
+        <v>15</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F109" t="n">
+        <v>70</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>F,F+3</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>17</v>
+      </c>
+      <c r="D110" t="n">
+        <v>15</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F110" t="n">
+        <v>70</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>F,F+3,4</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>32</v>
+      </c>
+      <c r="D111" t="n">
+        <v>15</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-16</v>
+      </c>
+      <c r="F111" t="n">
+        <v>70</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>F,F+2,2</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M,L </t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>35</v>
+      </c>
+      <c r="D112" t="n">
+        <v>15</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-19</v>
+      </c>
+      <c r="F112" t="n">
+        <v>70</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>F,F+4</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>20</v>
+      </c>
+      <c r="D113" t="n">
+        <v>27</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>70</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>F,F,F+2</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>M,Th</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>55</v>
+      </c>
+      <c r="D114" t="n">
+        <v>18</v>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="n">
+        <v>70</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Th</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B,F+1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H </t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>22</v>
+      </c>
+      <c r="D115" t="n">
+        <v>28</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F115" t="n">
+        <v>70</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>FC 1</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SM </t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>10</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>6</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+6	</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>FC 2</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SM </t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>8</v>
+      </c>
+      <c r="D117" t="n">
+        <v>11</v>
+      </c>
+      <c r="E117" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>7</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+7	</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>FC 3</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L </t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>12</v>
+      </c>
+      <c r="D118" t="n">
+        <v>16</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-3</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-3	</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>FC 4</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L </t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>10</v>
+      </c>
+      <c r="D119" t="n">
+        <v>12</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-15</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-4</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-4	</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>WS 1</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>17</v>
+      </c>
+      <c r="D120" t="n">
+        <v>15</v>
+      </c>
+      <c r="E120" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>WS 1,2</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>34</v>
+      </c>
+      <c r="D121" t="n">
+        <v>15</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-11</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>+2</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>WS 2</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>20</v>
+      </c>
+      <c r="D122" t="n">
+        <v>15</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F122" t="n">
+        <v>70</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>WS 3</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>16</v>
+      </c>
+      <c r="D123" t="n">
+        <v>13</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+3	</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>WS 3,2</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>M,H</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>37</v>
+      </c>
+      <c r="D124" t="n">
+        <v>13</v>
+      </c>
+      <c r="E124" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F124" t="n">
+        <v>70</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>WS 4</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>18</v>
+      </c>
+      <c r="D125" t="n">
+        <v>11</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-6</v>
+      </c>
+      <c r="F125" t="n">
+        <v>5</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+5	</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>FC DF+2</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>14</v>
+      </c>
+      <c r="D126" t="n">
+        <v>14</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-7</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-7	</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Same as FF,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SS 1</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H </t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>21</v>
+      </c>
+      <c r="D127" t="n">
+        <v>20</v>
+      </c>
+      <c r="E127" t="n">
+        <v>8</v>
+      </c>
+      <c r="F127" t="n">
+        <v>70</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SS 3</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L </t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>17</v>
+      </c>
+      <c r="D128" t="n">
+        <v>19</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+12	</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>QCF,1</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H </t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>21</v>
+      </c>
+      <c r="D129" t="n">
+        <v>16</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F129" t="n">
+        <v>70</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>QCF,2 (Heat engager)</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>M,SP</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>75</v>
+      </c>
+      <c r="D130" t="n">
+        <v>13</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-17</v>
+      </c>
+      <c r="F130" t="n">
+        <v>70</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>QCF,2 (Heat)</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>85</v>
+      </c>
+      <c r="D131" t="n">
+        <v>13</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F131" t="n">
+        <v>70</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>QCF,3</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L </t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>17</v>
+      </c>
+      <c r="D132" t="n">
+        <v>18</v>
+      </c>
+      <c r="E132" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>QCF,1+2</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L </t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>20</v>
+      </c>
+      <c r="D133" t="n">
+        <v>32</v>
+      </c>
+      <c r="E133" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F133" t="n">
+        <v>70</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>QCF,3+4</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>30</v>
+      </c>
+      <c r="D134" t="n">
+        <v>19</v>
+      </c>
+      <c r="E134" t="n">
+        <v>-9</v>
+      </c>
+      <c r="F134" t="n">
+        <v>70</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>QCF, DF+2</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M </t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>17</v>
+      </c>
+      <c r="D135" t="n">
+        <v>15</v>
+      </c>
+      <c r="E135" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Deep dive = QCF + DF</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>QCF, DF+2,1</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>M,H</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>45</v>
+      </c>
+      <c r="D136" t="n">
+        <v>15</v>
+      </c>
+      <c r="E136" t="n">
+        <v>-5</v>
+      </c>
+      <c r="F136" t="n">
+        <v>70</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>QCF, DF+2,3</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>39</v>
+      </c>
+      <c r="D137" t="n">
+        <v>15</v>
+      </c>
+      <c r="E137" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F137" t="n">
+        <v>70</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>QCF, DF+4</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L </t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>12</v>
+      </c>
+      <c r="D138" t="n">
+        <v>17</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>QCF, DF+4</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>M,M</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>80</v>
+      </c>
+      <c r="D139" t="n">
+        <v>16</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-49</v>
+      </c>
+      <c r="F139" t="n">
+        <v>70</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>QCB,1</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> M </t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>24</v>
+      </c>
+      <c r="D140" t="n">
+        <v>21</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>70</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>QCB,2 (Heat Engager)</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>M,SP</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>52</v>
+      </c>
+      <c r="D141" t="n">
+        <v>15</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>70</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Attack that can activate heat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>QCB,3</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L </t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>14</v>
+      </c>
+      <c r="D142" t="n">
+        <v>18</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-21</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-10</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>QCB,3,2</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>L,M</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>34</v>
+      </c>
+      <c r="D143" t="n">
+        <v>18</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F143" t="n">
+        <v>6</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">+6	</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>QCB,3,2,1</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>L,M,H</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>59</v>
+      </c>
+      <c r="D144" t="n">
+        <v>18</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F144" t="n">
+        <v>70</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>QCB,3,2,3</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>L,M,M</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>56</v>
+      </c>
+      <c r="D145" t="n">
+        <v>18</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F145" t="n">
+        <v>70</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>LNC</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>QCB,4</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H </t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>20</v>
+      </c>
+      <c r="D146" t="n">
+        <v>15</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>70</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>KDN</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>QCB,1+2</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H </t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>22</v>
+      </c>
+      <c r="D147" t="n">
+        <v>16</v>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="n">
+        <v>70</v>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
